--- a/python/xlsxFile_AutoSend_email/sample.xlsx
+++ b/python/xlsxFile_AutoSend_email/sample.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="cc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>mail_to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,11 +46,23 @@
     <t>Date Remianing</t>
   </si>
   <si>
-    <t>test@mail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_to@email.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +415,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -436,85 +449,78 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>1111</v>
       </c>
       <c r="D2" s="1">
-        <v>45016</v>
+        <v>45041</v>
       </c>
       <c r="E2">
         <f ca="1">(D2-TODAY())</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1111</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45015</v>
-      </c>
-      <c r="E3">
-        <f ca="1">(D3-TODAY())</f>
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1111</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45021</v>
-      </c>
-      <c r="E4">
-        <f ca="1">(D4-TODAY())</f>
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1111</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45022</v>
-      </c>
-      <c r="E5">
-        <f ca="1">(D5-TODAY())</f>
-        <v>8</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python/xlsxFile_AutoSend_email/sample.xlsx
+++ b/python/xlsxFile_AutoSend_email/sample.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\05733\Documents\GitHub\tools\python\xlsxFile_AutoSend_email\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\05733\Documents\GitHub\tools\python\xlsxFile_AutoSend_Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="cc" sheetId="2" r:id="rId2"/>
+    <sheet name="keepalive" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>mail_to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +64,14 @@
   </si>
   <si>
     <t>mail_to@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepalive_mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepalive@email.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,8 +142,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -462,7 +471,7 @@
       </c>
       <c r="E2">
         <f ca="1">(D2-TODAY())</f>
-        <v>8</v>
+        <v>-195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -492,7 +501,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -523,4 +532,42 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>